--- a/data/인구수.xlsx
+++ b/data/인구수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91857D22-1CF4-4B2A-8B90-ECA19A404D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C3E1D-ADEB-4F4E-B615-6939B263CD4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{ABC27DE6-871A-480C-BE4B-FB2F8467D4DB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>제주시</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -205,6 +205,18 @@
   <si>
     <t>예래동</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인구수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +454,9 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,376 +772,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30AD1A6-F03C-4171-A85D-C6030A8D3ED9}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B2" s="8">
         <v>505922</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="13">
+        <v>209070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B3" s="9">
         <v>25149</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="13">
+        <v>10404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="9">
         <v>37299</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="13">
+        <v>16098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="9">
         <v>16214</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="13">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="9">
         <v>25238</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="13">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="9">
         <v>9427</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="13">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="9">
         <v>2081</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="13">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="9">
         <v>1894</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="13">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="9">
         <v>2819</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="13">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B11" s="10">
         <v>34114</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="13">
+        <v>13237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B12" s="10">
         <v>7759</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="13">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="10">
         <v>50721</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="13">
+        <v>20229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B14" s="10">
         <v>14021</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="13">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B15" s="10">
         <v>8449</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="13">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B16" s="10">
         <v>7345</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="C16" s="13">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="10">
         <v>15343</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="C17" s="13">
+        <v>6418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10">
         <v>9587</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="13">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B19" s="10">
         <v>25323</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="C19" s="13">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B20" s="10">
         <v>25873</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="C20" s="13">
+        <v>9598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B21" s="10">
         <v>5347</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="C21" s="13">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>35997</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="C22" s="13">
+        <v>14032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B23" s="10">
         <v>15550</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="13">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>43682</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="13">
+        <v>19887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B25" s="10">
         <v>56632</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="13">
+        <v>21619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B26" s="10">
         <v>22020</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="13">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B27" s="10">
         <v>4731</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="13">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <v>3307</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="13">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B29" s="11">
         <v>190935</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="C29" s="13">
+        <v>83650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <v>23151</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="13">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B31" s="10">
         <v>19751</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="C31" s="13">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B32" s="10">
         <v>17414</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="13">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>12714</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="C33" s="13">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B34" s="10">
         <v>12761</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="C34" s="13">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B35" s="10">
         <v>4868</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="C35" s="13">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <v>2417</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="C36" s="13">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B37" s="10">
         <v>3822</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="C37" s="13">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <v>3665</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="13">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <v>5377</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="C39" s="13">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <v>5543</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="C40" s="13">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B41" s="10">
         <v>24380</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="13">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="10">
         <v>10562</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="13">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B43" s="10">
         <v>14611</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="C43" s="13">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B44" s="10">
         <v>13996</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="C44" s="13">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B45" s="10">
         <v>11623</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="C45" s="13">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B46" s="12">
         <v>4280</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1949</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>